--- a/media/temp/1/group_p1_1.xlsx
+++ b/media/temp/1/group_p1_1.xlsx
@@ -545,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
@@ -937,173 +937,173 @@
     <row r="16" ht="20" customHeight="1" s="9">
       <c r="A16" s="18" t="inlineStr">
         <is>
+          <t>063550</t>
+        </is>
+      </c>
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>ГАГУЛИЯ Н.В</t>
+        </is>
+      </c>
+      <c r="C16" s="20" t="inlineStr">
+        <is>
+          <t>07.09.1978</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr">
+        <is>
+          <t>31.03.2023</t>
+        </is>
+      </c>
+      <c r="E16" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F16" s="21" t="n"/>
+      <c r="G16" s="20" t="inlineStr">
+        <is>
+          <t>I21.3</t>
+        </is>
+      </c>
+      <c r="H16" s="22" t="inlineStr">
+        <is>
+          <t>кардиологические для взрослых</t>
+        </is>
+      </c>
+      <c r="J16" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ВТМП </t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="18" t="inlineStr">
+        <is>
           <t>063042</t>
         </is>
       </c>
-      <c r="B16" s="19" t="inlineStr">
+      <c r="B17" s="19" t="inlineStr">
         <is>
           <t>РИЗОВА Т.А</t>
         </is>
       </c>
-      <c r="C16" s="20" t="inlineStr">
+      <c r="C17" s="20" t="inlineStr">
         <is>
           <t>30.04.1957</t>
         </is>
       </c>
-      <c r="D16" s="20" t="inlineStr">
+      <c r="D17" s="20" t="inlineStr">
         <is>
           <t>31.03.2023</t>
         </is>
       </c>
-      <c r="E16" s="20" t="inlineStr">
-        <is>
-          <t>01.04.2023</t>
-        </is>
-      </c>
-      <c r="F16" s="21" t="inlineStr">
+      <c r="E17" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F17" s="21" t="inlineStr">
         <is>
           <t>умр.</t>
         </is>
       </c>
-      <c r="G16" s="20" t="inlineStr">
+      <c r="G17" s="20" t="inlineStr">
         <is>
           <t>I35.0</t>
         </is>
       </c>
-      <c r="H16" s="22" t="inlineStr">
+      <c r="H17" s="22" t="inlineStr">
         <is>
           <t>кардиологические для взрослых</t>
         </is>
       </c>
-      <c r="J16" s="22" t="inlineStr">
+      <c r="J17" s="22" t="inlineStr">
         <is>
           <t>OМС(К</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" s="9">
-      <c r="A17" s="17" t="inlineStr">
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="17" t="inlineStr">
         <is>
           <t>НЕВРОЛОГИЯ N1</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="20" customHeight="1" s="9">
-      <c r="A18" s="18" t="inlineStr">
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="18" t="inlineStr">
         <is>
           <t>055445</t>
         </is>
       </c>
-      <c r="B18" s="19" t="inlineStr">
+      <c r="B19" s="19" t="inlineStr">
         <is>
           <t>ЧЕРНЫХ Г.Д</t>
         </is>
       </c>
-      <c r="C18" s="20" t="inlineStr">
+      <c r="C19" s="20" t="inlineStr">
         <is>
           <t>30.12.1947</t>
         </is>
       </c>
-      <c r="D18" s="20" t="inlineStr">
+      <c r="D19" s="20" t="inlineStr">
         <is>
           <t>21.03.2023</t>
         </is>
       </c>
-      <c r="E18" s="20" t="inlineStr">
-        <is>
-          <t>01.04.2023</t>
-        </is>
-      </c>
-      <c r="F18" s="21" t="inlineStr">
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F19" s="21" t="inlineStr">
         <is>
           <t>умр.</t>
         </is>
       </c>
-      <c r="G18" s="20" t="inlineStr">
+      <c r="G19" s="20" t="inlineStr">
         <is>
           <t>I63.5</t>
         </is>
       </c>
-      <c r="H18" s="22" t="inlineStr">
+      <c r="H19" s="22" t="inlineStr">
         <is>
           <t>неврологические</t>
         </is>
       </c>
-      <c r="J18" s="22" t="inlineStr">
+      <c r="J19" s="22" t="inlineStr">
         <is>
           <t>OМС(К</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" s="9">
-      <c r="A19" s="17" t="inlineStr">
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="17" t="inlineStr">
         <is>
           <t>НЕЙРОХИРУРГИЯ</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="20" customHeight="1" s="9">
-      <c r="A20" s="18" t="inlineStr">
-        <is>
-          <t>061110</t>
-        </is>
-      </c>
-      <c r="B20" s="19" t="inlineStr">
-        <is>
-          <t>БАКШЕЕВ В.П</t>
-        </is>
-      </c>
-      <c r="C20" s="20" t="inlineStr">
-        <is>
-          <t>30.07.1984</t>
-        </is>
-      </c>
-      <c r="D20" s="20" t="inlineStr">
-        <is>
-          <t>28.03.2023</t>
-        </is>
-      </c>
-      <c r="E20" s="20" t="inlineStr">
-        <is>
-          <t>01.04.2023</t>
-        </is>
-      </c>
-      <c r="F20" s="21" t="n"/>
-      <c r="G20" s="20" t="inlineStr">
-        <is>
-          <t>M50.1</t>
-        </is>
-      </c>
-      <c r="H20" s="22" t="inlineStr">
-        <is>
-          <t>нейрохирургические</t>
-        </is>
-      </c>
-      <c r="J20" s="22" t="inlineStr">
-        <is>
-          <t>OМС(К</t>
         </is>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" s="9">
       <c r="A21" s="18" t="inlineStr">
         <is>
-          <t>060193</t>
+          <t>061110</t>
         </is>
       </c>
       <c r="B21" s="19" t="inlineStr">
         <is>
-          <t>НЕФЕДОВ Е.Л</t>
+          <t>БАКШЕЕВ В.П</t>
         </is>
       </c>
       <c r="C21" s="20" t="inlineStr">
         <is>
-          <t>04.12.1974</t>
+          <t>30.07.1984</t>
         </is>
       </c>
       <c r="D21" s="20" t="inlineStr">
         <is>
-          <t>27.03.2023</t>
+          <t>28.03.2023</t>
         </is>
       </c>
       <c r="E21" s="20" t="inlineStr">
@@ -1114,7 +1114,7 @@
       <c r="F21" s="21" t="n"/>
       <c r="G21" s="20" t="inlineStr">
         <is>
-          <t>T88.8</t>
+          <t>M50.1</t>
         </is>
       </c>
       <c r="H21" s="22" t="inlineStr">
@@ -1124,24 +1124,24 @@
       </c>
       <c r="J21" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">ВТМП </t>
+          <t>OМС(К</t>
         </is>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" s="9">
       <c r="A22" s="18" t="inlineStr">
         <is>
-          <t>060471</t>
+          <t>060193</t>
         </is>
       </c>
       <c r="B22" s="19" t="inlineStr">
         <is>
-          <t>ПЕЛЫХ И.Е</t>
+          <t>НЕФЕДОВ Е.Л</t>
         </is>
       </c>
       <c r="C22" s="20" t="inlineStr">
         <is>
-          <t>30.04.1980</t>
+          <t>04.12.1974</t>
         </is>
       </c>
       <c r="D22" s="20" t="inlineStr">
@@ -1157,7 +1157,7 @@
       <c r="F22" s="21" t="n"/>
       <c r="G22" s="20" t="inlineStr">
         <is>
-          <t>S06.50</t>
+          <t>T88.8</t>
         </is>
       </c>
       <c r="H22" s="22" t="inlineStr">
@@ -1167,29 +1167,29 @@
       </c>
       <c r="J22" s="22" t="inlineStr">
         <is>
-          <t>OМС(К</t>
+          <t xml:space="preserve">ВТМП </t>
         </is>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" s="9">
       <c r="A23" s="18" t="inlineStr">
         <is>
-          <t>054980</t>
+          <t>060471</t>
         </is>
       </c>
       <c r="B23" s="19" t="inlineStr">
         <is>
-          <t>СЕРЕБРЯКОВ А.В</t>
+          <t>ПЕЛЫХ И.Е</t>
         </is>
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
-          <t>24.11.1975</t>
+          <t>30.04.1980</t>
         </is>
       </c>
       <c r="D23" s="20" t="inlineStr">
         <is>
-          <t>20.03.2023</t>
+          <t>27.03.2023</t>
         </is>
       </c>
       <c r="E23" s="20" t="inlineStr">
@@ -1200,189 +1200,189 @@
       <c r="F23" s="21" t="n"/>
       <c r="G23" s="20" t="inlineStr">
         <is>
+          <t>S06.50</t>
+        </is>
+      </c>
+      <c r="H23" s="22" t="inlineStr">
+        <is>
+          <t>нейрохирургические</t>
+        </is>
+      </c>
+      <c r="J23" s="22" t="inlineStr">
+        <is>
+          <t>OМС(К</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="18" t="inlineStr">
+        <is>
+          <t>054980</t>
+        </is>
+      </c>
+      <c r="B24" s="19" t="inlineStr">
+        <is>
+          <t>СЕРЕБРЯКОВ А.В</t>
+        </is>
+      </c>
+      <c r="C24" s="20" t="inlineStr">
+        <is>
+          <t>24.11.1975</t>
+        </is>
+      </c>
+      <c r="D24" s="20" t="inlineStr">
+        <is>
+          <t>20.03.2023</t>
+        </is>
+      </c>
+      <c r="E24" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F24" s="21" t="n"/>
+      <c r="G24" s="20" t="inlineStr">
+        <is>
           <t>M51.1</t>
         </is>
       </c>
-      <c r="H23" s="22" t="inlineStr">
+      <c r="H24" s="22" t="inlineStr">
         <is>
           <t>нейрохирургические</t>
         </is>
       </c>
-      <c r="J23" s="22" t="inlineStr">
+      <c r="J24" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">ВТМП </t>
         </is>
       </c>
     </row>
-    <row r="24" ht="20" customHeight="1" s="9">
-      <c r="A24" s="17" t="inlineStr">
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="17" t="inlineStr">
         <is>
           <t>ПУЛЬМОНОЛОГИЯ</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="20" customHeight="1" s="9">
-      <c r="A25" s="18" t="inlineStr">
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="18" t="inlineStr">
         <is>
           <t>061646</t>
         </is>
       </c>
-      <c r="B25" s="19" t="inlineStr">
+      <c r="B26" s="19" t="inlineStr">
         <is>
           <t>МЯСНИКОВ В.М</t>
         </is>
       </c>
-      <c r="C25" s="20" t="inlineStr">
+      <c r="C26" s="20" t="inlineStr">
         <is>
           <t>07.11.1976</t>
         </is>
       </c>
-      <c r="D25" s="20" t="inlineStr">
+      <c r="D26" s="20" t="inlineStr">
         <is>
           <t>29.03.2023</t>
         </is>
       </c>
-      <c r="E25" s="20" t="inlineStr">
-        <is>
-          <t>01.04.2023</t>
-        </is>
-      </c>
-      <c r="F25" s="21" t="n"/>
-      <c r="G25" s="20" t="inlineStr">
+      <c r="E26" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F26" s="21" t="n"/>
+      <c r="G26" s="20" t="inlineStr">
         <is>
           <t>J84.8</t>
         </is>
       </c>
-      <c r="H25" s="22" t="inlineStr">
+      <c r="H26" s="22" t="inlineStr">
         <is>
           <t>пульмонологические</t>
         </is>
       </c>
-      <c r="J25" s="22" t="inlineStr">
+      <c r="J26" s="22" t="inlineStr">
         <is>
           <t>OМС(К</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="20" customHeight="1" s="9">
-      <c r="A26" s="17" t="inlineStr">
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="17" t="inlineStr">
         <is>
           <t>ТОКСИКОЛОГИЯ</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="20" customHeight="1" s="9">
-      <c r="A27" s="18" t="inlineStr">
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="18" t="inlineStr">
         <is>
           <t>062575</t>
         </is>
       </c>
-      <c r="B27" s="19" t="inlineStr">
+      <c r="B28" s="19" t="inlineStr">
         <is>
           <t>БОНДАРЕНКО В.А</t>
         </is>
       </c>
-      <c r="C27" s="20" t="inlineStr">
+      <c r="C28" s="20" t="inlineStr">
         <is>
           <t>24.11.1997</t>
         </is>
       </c>
-      <c r="D27" s="20" t="inlineStr">
+      <c r="D28" s="20" t="inlineStr">
         <is>
           <t>30.03.2023</t>
         </is>
       </c>
-      <c r="E27" s="20" t="inlineStr">
-        <is>
-          <t>01.04.2023</t>
-        </is>
-      </c>
-      <c r="F27" s="21" t="n"/>
-      <c r="G27" s="20" t="inlineStr">
+      <c r="E28" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F28" s="21" t="n"/>
+      <c r="G28" s="20" t="inlineStr">
         <is>
           <t>T59.9</t>
         </is>
       </c>
-      <c r="H27" s="22" t="inlineStr">
+      <c r="H28" s="22" t="inlineStr">
         <is>
           <t>терапевтические</t>
         </is>
       </c>
-      <c r="J27" s="22" t="inlineStr">
+      <c r="J28" s="22" t="inlineStr">
         <is>
           <t>OМС(К</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="20" customHeight="1" s="9">
-      <c r="A28" s="17" t="inlineStr">
-        <is>
-          <t>УРОЛОГИЧЕСКОЕ</t>
-        </is>
-      </c>
-    </row>
     <row r="29" ht="20" customHeight="1" s="9">
-      <c r="A29" s="18" t="inlineStr">
-        <is>
-          <t>060928</t>
-        </is>
-      </c>
-      <c r="B29" s="19" t="inlineStr">
-        <is>
-          <t>АНТУШЕВ В.В</t>
-        </is>
-      </c>
-      <c r="C29" s="20" t="inlineStr">
-        <is>
-          <t>23.01.1976</t>
-        </is>
-      </c>
-      <c r="D29" s="20" t="inlineStr">
-        <is>
-          <t>28.03.2023</t>
-        </is>
-      </c>
-      <c r="E29" s="20" t="inlineStr">
-        <is>
-          <t>01.04.2023</t>
-        </is>
-      </c>
-      <c r="F29" s="21" t="n"/>
-      <c r="G29" s="20" t="inlineStr">
-        <is>
-          <t>N45.0</t>
-        </is>
-      </c>
-      <c r="H29" s="22" t="inlineStr">
-        <is>
-          <t>урологические</t>
-        </is>
-      </c>
-      <c r="J29" s="22" t="inlineStr">
-        <is>
-          <t>OМС(К</t>
+      <c r="A29" s="17" t="inlineStr">
+        <is>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" s="9">
       <c r="A30" s="18" t="inlineStr">
         <is>
-          <t>062965</t>
+          <t>053630</t>
         </is>
       </c>
       <c r="B30" s="19" t="inlineStr">
         <is>
-          <t>БАТУРИН Н.А</t>
+          <t>ИЖБУЛДИНА Л.Д</t>
         </is>
       </c>
       <c r="C30" s="20" t="inlineStr">
         <is>
-          <t>11.09.1999</t>
+          <t>23.07.1961</t>
         </is>
       </c>
       <c r="D30" s="20" t="inlineStr">
         <is>
-          <t>31.03.2023</t>
+          <t>18.03.2023</t>
         </is>
       </c>
       <c r="E30" s="20" t="inlineStr">
@@ -1393,12 +1393,12 @@
       <c r="F30" s="21" t="n"/>
       <c r="G30" s="20" t="inlineStr">
         <is>
-          <t>I86.1</t>
+          <t>S81.0</t>
         </is>
       </c>
       <c r="H30" s="22" t="inlineStr">
         <is>
-          <t>урологические</t>
+          <t>ортопедические</t>
         </is>
       </c>
       <c r="J30" s="22" t="inlineStr">
@@ -1410,22 +1410,22 @@
     <row r="31" ht="20" customHeight="1" s="9">
       <c r="A31" s="18" t="inlineStr">
         <is>
-          <t>059929</t>
+          <t>062340</t>
         </is>
       </c>
       <c r="B31" s="19" t="inlineStr">
         <is>
-          <t>ПОПОВ М.С</t>
+          <t>СТАДУХИН М.А</t>
         </is>
       </c>
       <c r="C31" s="20" t="inlineStr">
         <is>
-          <t>05.04.1951</t>
+          <t>03.09.1949</t>
         </is>
       </c>
       <c r="D31" s="20" t="inlineStr">
         <is>
-          <t>27.03.2023</t>
+          <t>30.03.2023</t>
         </is>
       </c>
       <c r="E31" s="20" t="inlineStr">
@@ -1436,12 +1436,12 @@
       <c r="F31" s="21" t="n"/>
       <c r="G31" s="20" t="inlineStr">
         <is>
-          <t>N40</t>
+          <t>M86.4</t>
         </is>
       </c>
       <c r="H31" s="22" t="inlineStr">
         <is>
-          <t>урологические</t>
+          <t>травматологические</t>
         </is>
       </c>
       <c r="J31" s="22" t="inlineStr">
@@ -1453,24 +1453,24 @@
     <row r="32" ht="20" customHeight="1" s="9">
       <c r="A32" s="17" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>УРОЛОГИЧЕСКОЕ</t>
         </is>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" s="9">
       <c r="A33" s="18" t="inlineStr">
         <is>
-          <t>060699</t>
+          <t>060928</t>
         </is>
       </c>
       <c r="B33" s="19" t="inlineStr">
         <is>
-          <t>ДИГОВЕЦ В.М</t>
+          <t>АНТУШЕВ В.В</t>
         </is>
       </c>
       <c r="C33" s="20" t="inlineStr">
         <is>
-          <t>22.05.1955</t>
+          <t>23.01.1976</t>
         </is>
       </c>
       <c r="D33" s="20" t="inlineStr">
@@ -1486,12 +1486,12 @@
       <c r="F33" s="21" t="n"/>
       <c r="G33" s="20" t="inlineStr">
         <is>
-          <t>K80.5</t>
+          <t>N45.0</t>
         </is>
       </c>
       <c r="H33" s="22" t="inlineStr">
         <is>
-          <t>хирургические (хирургия)</t>
+          <t>урологические</t>
         </is>
       </c>
       <c r="J33" s="22" t="inlineStr">
@@ -1503,22 +1503,22 @@
     <row r="34" ht="20" customHeight="1" s="9">
       <c r="A34" s="18" t="inlineStr">
         <is>
-          <t>061671</t>
+          <t>062965</t>
         </is>
       </c>
       <c r="B34" s="19" t="inlineStr">
         <is>
-          <t>СИРОТКИНА Е.С</t>
+          <t>БАТУРИН Н.А</t>
         </is>
       </c>
       <c r="C34" s="20" t="inlineStr">
         <is>
-          <t>14.05.1997</t>
+          <t>11.09.1999</t>
         </is>
       </c>
       <c r="D34" s="20" t="inlineStr">
         <is>
-          <t>29.03.2023</t>
+          <t>31.03.2023</t>
         </is>
       </c>
       <c r="E34" s="20" t="inlineStr">
@@ -1529,97 +1529,330 @@
       <c r="F34" s="21" t="n"/>
       <c r="G34" s="20" t="inlineStr">
         <is>
+          <t>I86.1</t>
+        </is>
+      </c>
+      <c r="H34" s="22" t="inlineStr">
+        <is>
+          <t>урологические</t>
+        </is>
+      </c>
+      <c r="J34" s="22" t="inlineStr">
+        <is>
+          <t>OМС(К</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>059929</t>
+        </is>
+      </c>
+      <c r="B35" s="19" t="inlineStr">
+        <is>
+          <t>ПОПОВ М.С</t>
+        </is>
+      </c>
+      <c r="C35" s="20" t="inlineStr">
+        <is>
+          <t>05.04.1951</t>
+        </is>
+      </c>
+      <c r="D35" s="20" t="inlineStr">
+        <is>
+          <t>27.03.2023</t>
+        </is>
+      </c>
+      <c r="E35" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F35" s="21" t="n"/>
+      <c r="G35" s="20" t="inlineStr">
+        <is>
+          <t>N40</t>
+        </is>
+      </c>
+      <c r="H35" s="22" t="inlineStr">
+        <is>
+          <t>урологические</t>
+        </is>
+      </c>
+      <c r="J35" s="22" t="inlineStr">
+        <is>
+          <t>OМС(К</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>060932</t>
+        </is>
+      </c>
+      <c r="B36" s="19" t="inlineStr">
+        <is>
+          <t>СУЩЕНКО В.Г</t>
+        </is>
+      </c>
+      <c r="C36" s="20" t="inlineStr">
+        <is>
+          <t>23.12.1964</t>
+        </is>
+      </c>
+      <c r="D36" s="20" t="inlineStr">
+        <is>
+          <t>28.03.2023</t>
+        </is>
+      </c>
+      <c r="E36" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F36" s="21" t="n"/>
+      <c r="G36" s="20" t="inlineStr">
+        <is>
+          <t>N41.0</t>
+        </is>
+      </c>
+      <c r="H36" s="22" t="inlineStr">
+        <is>
+          <t>урологические</t>
+        </is>
+      </c>
+      <c r="J36" s="22" t="inlineStr">
+        <is>
+          <t>OМС(К</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="17" t="inlineStr">
+        <is>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>060699</t>
+        </is>
+      </c>
+      <c r="B38" s="19" t="inlineStr">
+        <is>
+          <t>ДИГОВЕЦ В.М</t>
+        </is>
+      </c>
+      <c r="C38" s="20" t="inlineStr">
+        <is>
+          <t>22.05.1955</t>
+        </is>
+      </c>
+      <c r="D38" s="20" t="inlineStr">
+        <is>
+          <t>28.03.2023</t>
+        </is>
+      </c>
+      <c r="E38" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F38" s="21" t="n"/>
+      <c r="G38" s="20" t="inlineStr">
+        <is>
+          <t>K80.5</t>
+        </is>
+      </c>
+      <c r="H38" s="22" t="inlineStr">
+        <is>
+          <t>хирургические (хирургия)</t>
+        </is>
+      </c>
+      <c r="J38" s="22" t="inlineStr">
+        <is>
+          <t>OМС(К</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="18" t="inlineStr">
+        <is>
+          <t>060868</t>
+        </is>
+      </c>
+      <c r="B39" s="19" t="inlineStr">
+        <is>
+          <t>КОЗИН В.Н</t>
+        </is>
+      </c>
+      <c r="C39" s="20" t="inlineStr">
+        <is>
+          <t>28.12.1958</t>
+        </is>
+      </c>
+      <c r="D39" s="20" t="inlineStr">
+        <is>
+          <t>28.03.2023</t>
+        </is>
+      </c>
+      <c r="E39" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F39" s="21" t="inlineStr">
+        <is>
+          <t>умр.</t>
+        </is>
+      </c>
+      <c r="G39" s="20" t="inlineStr">
+        <is>
+          <t>R17</t>
+        </is>
+      </c>
+      <c r="H39" s="22" t="inlineStr">
+        <is>
+          <t>хирургические (хирургия)</t>
+        </is>
+      </c>
+      <c r="J39" s="22" t="inlineStr">
+        <is>
+          <t>OМС(К</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="18" t="inlineStr">
+        <is>
+          <t>061671</t>
+        </is>
+      </c>
+      <c r="B40" s="19" t="inlineStr">
+        <is>
+          <t>СИРОТКИНА Е.С</t>
+        </is>
+      </c>
+      <c r="C40" s="20" t="inlineStr">
+        <is>
+          <t>14.05.1997</t>
+        </is>
+      </c>
+      <c r="D40" s="20" t="inlineStr">
+        <is>
+          <t>29.03.2023</t>
+        </is>
+      </c>
+      <c r="E40" s="20" t="inlineStr">
+        <is>
+          <t>01.04.2023</t>
+        </is>
+      </c>
+      <c r="F40" s="21" t="n"/>
+      <c r="G40" s="20" t="inlineStr">
+        <is>
           <t>K42.9</t>
         </is>
       </c>
-      <c r="H34" s="22" t="inlineStr">
+      <c r="H40" s="22" t="inlineStr">
         <is>
           <t>хирургические (хирургия)</t>
         </is>
       </c>
-      <c r="J34" s="22" t="inlineStr">
+      <c r="J40" s="22" t="inlineStr">
         <is>
           <t>OМС(К</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="20" customHeight="1" s="9">
-      <c r="A37" s="22" t="inlineStr">
-        <is>
-          <t>Итого по отделению - 19</t>
-        </is>
-      </c>
-      <c r="C37" s="22" t="inlineStr">
-        <is>
-          <t>Умерших - 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="20" customHeight="1" s="9">
-      <c r="A38" s="22" t="inlineStr">
-        <is>
-          <t>Из них:</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="20" customHeight="1" s="9">
-      <c r="A39" s="22" t="inlineStr">
-        <is>
-          <t>ГИНЕКОЛОГИЧЕСКОЕ - 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="20" customHeight="1" s="9">
-      <c r="A40" s="22" t="inlineStr">
-        <is>
-          <t>КАРДИОЛОГИЧЕСКОЕ - 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="20" customHeight="1" s="9">
-      <c r="A41" s="22" t="inlineStr">
-        <is>
-          <t>НЕВРОЛОГИЯ N1 - 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="20" customHeight="1" s="9">
-      <c r="A42" s="22" t="inlineStr">
-        <is>
-          <t>НЕЙРОХИРУРГИЯ - 4</t>
         </is>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" s="9">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>ПУЛЬМОНОЛОГИЯ - 1</t>
+          <t>Итого по отделению - 24</t>
+        </is>
+      </c>
+      <c r="C43" s="22" t="inlineStr">
+        <is>
+          <t>Умерших - 3</t>
         </is>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" s="9">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>ТОКСИКОЛОГИЯ - 1</t>
+          <t>Из них:</t>
         </is>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" s="9">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>УРОЛОГИЧЕСКОЕ - 3</t>
+          <t>ГИНЕКОЛОГИЧЕСКОЕ - 6</t>
         </is>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" s="9">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1 - 2</t>
+          <t>КАРДИОЛОГИЧЕСКОЕ - 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="22" t="inlineStr">
+        <is>
+          <t>НЕВРОЛОГИЯ N1 - 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="22" t="inlineStr">
+        <is>
+          <t>НЕЙРОХИРУРГИЯ - 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="22" t="inlineStr">
+        <is>
+          <t>ПУЛЬМОНОЛОГИЯ - 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="22" t="inlineStr">
+        <is>
+          <t>ТОКСИКОЛОГИЯ - 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="22" t="inlineStr">
+        <is>
+          <t>ТРАВМА N3 - 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="22" t="inlineStr">
+        <is>
+          <t>УРОЛОГИЧЕСКОЕ - 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="22" t="inlineStr">
+        <is>
+          <t>ХИРУРГИЧЕСКОЕ N1 - 3</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="48">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
@@ -1634,33 +1867,40 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:J20"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A29:J29"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.118055555555556" right="0.0395833333333333" top="0.196527777777778" bottom="0.383333333333333" header="0.511811023622047" footer="0.118055555555556"/>

--- a/media/temp/1/group_p1_1.xlsx
+++ b/media/temp/1/group_p1_1.xlsx
@@ -18,9 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <name val="Arial"/>
@@ -178,7 +176,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1616,12 +1616,14 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="23" t="n">
-        <v>45061.49998875811</v>
+      <c r="A47" s="23" t="inlineStr">
+        <is>
+          <t>19-05-2023,08:44</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
@@ -1661,6 +1663,7 @@
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.118055555555556" right="0.0395833333333333" top="0.196527777777778" bottom="0.383333333333333" header="0.511811023622047" footer="0.118055555555556"/>
